--- a/PL 23SL01000185 Nicosia CY.xlsx
+++ b/PL 23SL01000185 Nicosia CY.xlsx
@@ -1100,7 +1100,7 @@
     <row r="3" ht="12.75" customHeight="1" s="59">
       <c r="A3" s="79" t="inlineStr">
         <is>
-          <t>ORDER Num: 22MPCW0100000032</t>
+          <t>ORDER : 22MPCW0100000032</t>
         </is>
       </c>
       <c r="B3" s="75" t="n"/>

--- a/PL 23SL01000185 Nicosia CY.xlsx
+++ b/PL 23SL01000185 Nicosia CY.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="List1" sheetId="1" state="visible" r:id="rId1"/>
@@ -435,7 +435,7 @@
       <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -545,45 +545,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -601,32 +562,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1062,32 +1068,32 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B9" sqref="B9:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="16.7109375" customWidth="1" style="58" min="1" max="1"/>
-    <col width="42.140625" customWidth="1" style="58" min="2" max="2"/>
-    <col width="7.28515625" bestFit="1" customWidth="1" style="58" min="3" max="3"/>
-    <col width="4.5703125" customWidth="1" style="58" min="4" max="4"/>
-    <col width="31.85546875" customWidth="1" style="58" min="5" max="5"/>
-    <col width="9.140625" customWidth="1" style="58" min="6" max="16384"/>
+    <col width="16.7109375" customWidth="1" style="45" min="1" max="1"/>
+    <col width="42.140625" customWidth="1" style="45" min="2" max="2"/>
+    <col width="7.28515625" bestFit="1" customWidth="1" style="45" min="3" max="3"/>
+    <col width="4.5703125" customWidth="1" style="45" min="4" max="4"/>
+    <col width="31.85546875" customWidth="1" style="45" min="5" max="5"/>
+    <col width="9.140625" customWidth="1" style="45" min="6" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1" s="59">
-      <c r="A1" s="74" t="inlineStr">
+    <row r="1" ht="23.25" customHeight="1" s="46">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>MORAVIA PROPAG s.r.o.</t>
         </is>
       </c>
-      <c r="B1" s="75" t="n"/>
-      <c r="C1" s="75" t="n"/>
-      <c r="D1" s="75" t="n"/>
-      <c r="E1" s="76" t="n"/>
-    </row>
-    <row r="2" ht="69" customHeight="1" s="59" thickBot="1">
-      <c r="A2" s="77" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="69" customHeight="1" s="46" thickBot="1">
+      <c r="A2" s="79" t="inlineStr">
         <is>
           <t>Karásek 7, BRNO,  Czech republic
 Incorporated in the Commercial Register maintained by the Regional Court in Brno, Section C, 
@@ -1095,49 +1101,49 @@
 IČ: 25504428, VAT No.: CZ25504428</t>
         </is>
       </c>
-      <c r="E2" s="78" t="n"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="59">
-      <c r="A3" s="79" t="inlineStr">
+      <c r="E2" s="80" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="46">
+      <c r="A3" s="81" t="inlineStr">
         <is>
           <t>ORDER : 22MPCW0100000032</t>
         </is>
       </c>
-      <c r="B3" s="75" t="n"/>
-      <c r="C3" s="75" t="n"/>
-      <c r="D3" s="75" t="n"/>
-      <c r="E3" s="76" t="n"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="59">
-      <c r="A4" s="80" t="n"/>
-      <c r="E4" s="78" t="n"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="59">
-      <c r="A5" s="81" t="inlineStr">
+      <c r="B3" s="77" t="n"/>
+      <c r="C3" s="77" t="n"/>
+      <c r="D3" s="77" t="n"/>
+      <c r="E3" s="78" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="46">
+      <c r="A4" s="82" t="n"/>
+      <c r="E4" s="80" t="n"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="46">
+      <c r="A5" s="83" t="inlineStr">
         <is>
           <t>PACKING LIST - 23SL01000185</t>
         </is>
       </c>
-      <c r="E5" s="78" t="n"/>
+      <c r="E5" s="80" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="80" t="n"/>
-      <c r="E6" s="78" t="n"/>
+      <c r="A6" s="82" t="n"/>
+      <c r="E6" s="80" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="82" t="inlineStr">
+      <c r="A7" s="84" t="inlineStr">
         <is>
           <t>INVOICE: 230300170</t>
         </is>
       </c>
-      <c r="E7" s="78" t="n"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" s="59" thickBot="1">
-      <c r="A8" s="83" t="n"/>
-      <c r="B8" s="84" t="n"/>
-      <c r="C8" s="84" t="n"/>
-      <c r="D8" s="84" t="n"/>
-      <c r="E8" s="85" t="n"/>
+      <c r="E7" s="80" t="n"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="46" thickBot="1">
+      <c r="A8" s="85" t="n"/>
+      <c r="B8" s="86" t="n"/>
+      <c r="C8" s="86" t="n"/>
+      <c r="D8" s="86" t="n"/>
+      <c r="E8" s="87" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="43" t="inlineStr">
@@ -1145,7 +1151,7 @@
           <t>Customer Name</t>
         </is>
       </c>
-      <c r="B9" s="86" t="inlineStr">
+      <c r="B9" s="88" t="inlineStr">
         <is>
           <t xml:space="preserve">Carlsberg Kypr warehouse
 PPB. LTD
@@ -1159,7 +1165,7 @@
 </t>
         </is>
       </c>
-      <c r="E9" s="78" t="n"/>
+      <c r="E9" s="80" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="43" t="inlineStr">
@@ -1167,40 +1173,40 @@
           <t>Customer Address</t>
         </is>
       </c>
-      <c r="E10" s="78" t="n"/>
+      <c r="E10" s="80" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="43" t="n"/>
-      <c r="E11" s="78" t="n"/>
+      <c r="E11" s="80" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="43" t="n"/>
-      <c r="E12" s="78" t="n"/>
+      <c r="E12" s="80" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="43" t="n"/>
-      <c r="E13" s="78" t="n"/>
+      <c r="E13" s="80" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="43" t="n"/>
-      <c r="E14" s="78" t="n"/>
+      <c r="E14" s="80" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="43" t="n"/>
-      <c r="E15" s="78" t="n"/>
+      <c r="E15" s="80" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="43" t="n"/>
-      <c r="E16" s="78" t="n"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" s="59" thickBot="1">
+      <c r="E16" s="80" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="46" thickBot="1">
       <c r="A17" s="44" t="n"/>
-      <c r="B17" s="84" t="n"/>
-      <c r="C17" s="84" t="n"/>
-      <c r="D17" s="84" t="n"/>
-      <c r="E17" s="85" t="n"/>
-    </row>
-    <row r="18" ht="26.25" customHeight="1" s="59" thickBot="1">
+      <c r="B17" s="86" t="n"/>
+      <c r="C17" s="86" t="n"/>
+      <c r="D17" s="86" t="n"/>
+      <c r="E17" s="87" t="n"/>
+    </row>
+    <row r="18" ht="26.25" customHeight="1" s="46" thickBot="1">
       <c r="A18" s="42" t="inlineStr">
         <is>
           <t>Marks &amp; No.</t>
@@ -1216,7 +1222,7 @@
           <t>QTY</t>
         </is>
       </c>
-      <c r="D18" s="87" t="n"/>
+      <c r="D18" s="89" t="n"/>
       <c r="E18" s="28" t="inlineStr">
         <is>
           <t>Packing &amp; Meas´t</t>
@@ -1230,7 +1236,7 @@
       <c r="D19" s="20" t="n"/>
       <c r="E19" s="30" t="n"/>
     </row>
-    <row r="20" ht="15" customHeight="1" s="59">
+    <row r="20" ht="15" customHeight="1" s="46">
       <c r="A20" s="31" t="inlineStr">
         <is>
           <t>ZB0039514</t>
@@ -1251,70 +1257,70 @@
       </c>
       <c r="E20" s="32" t="n"/>
     </row>
-    <row r="21" ht="15" customHeight="1" s="59">
+    <row r="21" ht="15" customHeight="1" s="46">
       <c r="A21" s="33" t="n"/>
       <c r="B21" s="11" t="n"/>
       <c r="C21" s="12" t="n"/>
       <c r="D21" s="14" t="n"/>
       <c r="E21" s="32" t="n"/>
     </row>
-    <row r="22" ht="15" customHeight="1" s="59">
+    <row r="22" ht="15" customHeight="1" s="46">
       <c r="A22" s="33" t="n"/>
       <c r="B22" s="11" t="n"/>
       <c r="C22" s="12" t="n"/>
       <c r="D22" s="14" t="n"/>
       <c r="E22" s="32" t="n"/>
     </row>
-    <row r="23" ht="15" customHeight="1" s="59">
+    <row r="23" ht="15" customHeight="1" s="46">
       <c r="A23" s="33" t="n"/>
       <c r="B23" s="11" t="n"/>
       <c r="C23" s="12" t="n"/>
       <c r="D23" s="14" t="n"/>
       <c r="E23" s="32" t="n"/>
     </row>
-    <row r="24" ht="15" customHeight="1" s="59">
+    <row r="24" ht="15" customHeight="1" s="46">
       <c r="A24" s="33" t="n"/>
       <c r="B24" s="11" t="n"/>
       <c r="C24" s="12" t="n"/>
       <c r="D24" s="14" t="n"/>
       <c r="E24" s="32" t="n"/>
     </row>
-    <row r="25" ht="15" customHeight="1" s="59">
+    <row r="25" ht="15" customHeight="1" s="46">
       <c r="A25" s="33" t="n"/>
       <c r="B25" s="11" t="n"/>
       <c r="C25" s="12" t="n"/>
       <c r="D25" s="14" t="n"/>
       <c r="E25" s="32" t="n"/>
     </row>
-    <row r="26" ht="15" customHeight="1" s="59">
+    <row r="26" ht="15" customHeight="1" s="46">
       <c r="A26" s="33" t="n"/>
       <c r="B26" s="11" t="n"/>
       <c r="C26" s="12" t="n"/>
       <c r="D26" s="14" t="n"/>
       <c r="E26" s="32" t="n"/>
     </row>
-    <row r="27" ht="15" customHeight="1" s="59">
+    <row r="27" ht="15" customHeight="1" s="46">
       <c r="A27" s="33" t="n"/>
       <c r="B27" s="11" t="n"/>
       <c r="C27" s="12" t="n"/>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="32" t="n"/>
     </row>
-    <row r="28" ht="15" customHeight="1" s="59">
+    <row r="28" ht="15" customHeight="1" s="46">
       <c r="A28" s="33" t="n"/>
       <c r="B28" s="11" t="n"/>
       <c r="C28" s="12" t="n"/>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="32" t="n"/>
     </row>
-    <row r="29" ht="15" customHeight="1" s="59">
+    <row r="29" ht="15" customHeight="1" s="46">
       <c r="A29" s="33" t="n"/>
       <c r="B29" s="11" t="n"/>
       <c r="C29" s="12" t="n"/>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="32" t="n"/>
     </row>
-    <row r="30" ht="15" customHeight="1" s="59">
+    <row r="30" ht="15" customHeight="1" s="46">
       <c r="A30" s="33" t="n"/>
       <c r="B30" s="11" t="n"/>
       <c r="C30" s="13" t="n"/>
@@ -1349,7 +1355,7 @@
       <c r="D34" s="14" t="n"/>
       <c r="E34" s="35" t="n"/>
     </row>
-    <row r="35" ht="13.5" customHeight="1" s="59" thickBot="1">
+    <row r="35" ht="13.5" customHeight="1" s="46" thickBot="1">
       <c r="A35" s="21" t="n"/>
       <c r="B35" s="22" t="n"/>
       <c r="C35" s="2" t="n"/>
@@ -1357,42 +1363,42 @@
       <c r="E35" s="36" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="88" t="inlineStr">
+      <c r="A36" s="90" t="inlineStr">
         <is>
           <t>DAP: Nicosia (according INCOTERMS 2010)</t>
         </is>
       </c>
-      <c r="B36" s="78" t="n"/>
+      <c r="B36" s="80" t="n"/>
       <c r="C36" s="24" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="29" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="80" t="n"/>
-      <c r="B37" s="78" t="n"/>
+      <c r="A37" s="82" t="n"/>
+      <c r="B37" s="80" t="n"/>
       <c r="D37" s="15" t="n"/>
       <c r="E37" s="9" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="80" t="n"/>
-      <c r="B38" s="78" t="n"/>
+      <c r="A38" s="82" t="n"/>
+      <c r="B38" s="80" t="n"/>
       <c r="D38" s="15" t="n"/>
       <c r="E38" s="9" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="80" t="n"/>
-      <c r="B39" s="78" t="n"/>
+      <c r="A39" s="82" t="n"/>
+      <c r="B39" s="80" t="n"/>
       <c r="D39" s="15" t="n"/>
       <c r="E39" s="9" t="n"/>
     </row>
-    <row r="40" ht="13.5" customHeight="1" s="59" thickBot="1">
-      <c r="A40" s="83" t="n"/>
-      <c r="B40" s="85" t="n"/>
+    <row r="40" ht="13.5" customHeight="1" s="46" thickBot="1">
+      <c r="A40" s="85" t="n"/>
+      <c r="B40" s="87" t="n"/>
       <c r="C40" s="7" t="n"/>
       <c r="D40" s="16" t="n"/>
       <c r="E40" s="19" t="n"/>
     </row>
-    <row r="41" ht="28.5" customHeight="1" s="59" thickBot="1">
+    <row r="41" ht="28.5" customHeight="1" s="46" thickBot="1">
       <c r="A41" s="37" t="inlineStr">
         <is>
           <t>Totals</t>
@@ -1438,7 +1444,7 @@
           <t xml:space="preserve">Quantity and Kind of Packages: </t>
         </is>
       </c>
-      <c r="C45" s="58" t="n"/>
+      <c r="C45" s="45" t="n"/>
       <c r="E45" s="8" t="n"/>
     </row>
     <row r="46">
@@ -1448,14 +1454,14 @@
           <t xml:space="preserve">Total Gross Weight: </t>
         </is>
       </c>
-      <c r="C46" s="58" t="n"/>
+      <c r="C46" s="45" t="n"/>
       <c r="E46" s="8" t="n"/>
     </row>
     <row r="47">
       <c r="B47" s="10" t="n"/>
     </row>
-    <row r="48" ht="13.5" customHeight="1" s="59" thickBot="1"/>
-    <row r="49" ht="13.5" customHeight="1" s="59" thickBot="1">
+    <row r="48" ht="13.5" customHeight="1" s="46" thickBot="1"/>
+    <row r="49" ht="13.5" customHeight="1" s="46" thickBot="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
           <t>Remarks</t>
@@ -1467,7 +1473,7 @@
       <c r="E49" s="5" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="46" t="inlineStr">
+      <c r="B52" s="52" t="inlineStr">
         <is>
           <t>End Of Packing List</t>
         </is>
@@ -1475,16 +1481,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="A36:B40"/>
     <mergeCell ref="B9:E17"/>
     <mergeCell ref="A5:E6"/>
     <mergeCell ref="A7:E8"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.787401575" right="0.787401575" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup orientation="portrait" paperSize="9" scale="85" horizontalDpi="300" verticalDpi="300"/>
